--- a/docs/assets/templates/sighting_import.xlsx
+++ b/docs/assets/templates/sighting_import.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stere\Desktop\bulkimportformats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Desktop/New Bulk Import spreadsheet templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A9D3C5-9430-4399-A549-41180CE22EB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB21D5E9-99F3-FD40-BED9-8723497D20D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{A263B153-333A-4242-B05A-7E4C4091D521}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17080" xr2:uid="{A263B153-333A-4242-B05A-7E4C4091D521}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimum" sheetId="1" r:id="rId1"/>
-    <sheet name="Explanations" sheetId="2" r:id="rId2"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Encounter.mediaAsset0</t>
   </si>
@@ -48,77 +48,62 @@
     <t>Encounter.locationID</t>
   </si>
   <si>
-    <t>Photograph</t>
-  </si>
-  <si>
-    <t>Taxonomy</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Required in most Wildbooks. Include both Encounter.genus and Encounter.specificEpithet</t>
-  </si>
-  <si>
-    <t>Encounter.mediaAsset0 is required for successful upload. Must be entered exactly: relative path to the photo from the position of the imported spreadsheet on the file system</t>
-  </si>
-  <si>
-    <t>Data owner</t>
-  </si>
-  <si>
     <t>Encounter.submitterID</t>
   </si>
   <si>
-    <t>Encounter.submitterID; is not necessary if you want to create public encounters</t>
-  </si>
-  <si>
-    <t>Occurrence.occurrenceID</t>
-  </si>
-  <si>
-    <t>Occurrence.maxGroupSizeEstimate</t>
-  </si>
-  <si>
-    <t>Occurrence.minGroupSizeEstimate</t>
-  </si>
-  <si>
-    <t>Occurrence.individualCount</t>
-  </si>
-  <si>
-    <t>Occurrence.groupBehavior</t>
-  </si>
-  <si>
-    <t>Occurrence.groupComposition</t>
-  </si>
-  <si>
-    <t>Occurrence.bestGroupSizeEstimate</t>
-  </si>
-  <si>
-    <t>Sighting Name</t>
-  </si>
-  <si>
-    <t>Sighting observations</t>
-  </si>
-  <si>
-    <t>Sighting estimates</t>
-  </si>
-  <si>
-    <t>Encounter.locationID of the first encounter in a sighting sets the location for the sighting. To prevent any caching or threading issues, it is best to set this for all encounters being reported</t>
-  </si>
-  <si>
-    <t>Occurrence.occurrenceID is unique to each sighting. If you provide the name of a sighting that is already in the system, encounters will be associated with that sighting instead.</t>
-  </si>
-  <si>
-    <t>Occurrence.groupBehavior and Occurrence.groupComposition allow you to select from values in your platform. These must be entered as they appear on a sighting.</t>
-  </si>
-  <si>
-    <t>Occurrence.bestGroupSizeEstimate, Occurrence.maxGroupSizeEstimate, Occurrence.minGroupSizeEstimate and Occurrence.individualCount allow you to provide count estimates for the sighting.</t>
+    <t>Sighting.sightingID</t>
+  </si>
+  <si>
+    <t>Sighting.groupBehavior</t>
+  </si>
+  <si>
+    <t>Sighting.groupComposition</t>
+  </si>
+  <si>
+    <t>Sighting.bestGroupSizeEstimate</t>
+  </si>
+  <si>
+    <t>Sighting.maxGroupSizeEstimate</t>
+  </si>
+  <si>
+    <t>Sighting.minGroupSizeEstimate</t>
+  </si>
+  <si>
+    <t>For a list of available fields and how to use them see:</t>
+  </si>
+  <si>
+    <t>https://wildbook.docs.wildme.org/data/bulk-import-beta.html#fields-available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find demos and tutorials on our YouTube channel: </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@wildme3451/videos</t>
+  </si>
+  <si>
+    <t>Sighting.individualCount</t>
+  </si>
+  <si>
+    <t>Sighting.year</t>
+  </si>
+  <si>
+    <t>Sighting.month</t>
+  </si>
+  <si>
+    <t>Sighting.day</t>
+  </si>
+  <si>
+    <t>Sighting.hour</t>
+  </si>
+  <si>
+    <t>Sighting.minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +111,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,25 +129,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,22 +163,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -220,9 +192,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,7 +232,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -366,7 +338,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -508,7 +480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -516,64 +488,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F952EF-0BDC-44CA-956A-D249AEA1D657}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.41796875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.89453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.9453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.05078125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1015625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.62890625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.3125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.68359375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>10</v>
+      <c r="Q1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -583,83 +572,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B51BBC-974A-4916-92C0-48C3833BBE3C}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>8</v>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
+    <row r="2" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" location="fields-available" xr:uid="{11AEFEB4-EF35-1946-A237-5F3C686CC444}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{D8B1B233-5F75-8342-8CEE-91DCC39DC190}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>